--- a/grupos/5APV - Estadisticos 20211.xlsx
+++ b/grupos/5APV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="164">
   <si>
     <t>Materia</t>
   </si>
@@ -197,13 +197,13 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
     <t>Sánchez Sánchez Miguel</t>
@@ -998,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -1052,13 +1052,13 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W4">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1129,7 +1129,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -1152,19 +1152,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1206,19 +1206,19 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>10</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>10</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <v>9</v>
@@ -1229,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1283,7 +1283,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -1306,13 +1306,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1360,13 +1360,13 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U8">
         <v>10</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>9</v>
@@ -1383,13 +1383,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1437,13 +1437,13 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U9">
         <v>10</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W9">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -1520,7 +1520,7 @@
         <v>-1</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1537,19 +1537,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1591,19 +1591,19 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W11">
         <v>10</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y11">
         <v>9</v>
@@ -1614,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1668,7 +1668,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -1691,13 +1691,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1745,13 +1745,13 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>8</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W13">
         <v>7</v>
@@ -1768,13 +1768,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1822,13 +1822,13 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>7</v>
@@ -1845,19 +1845,19 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -1899,19 +1899,19 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U15">
         <v>10</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W15">
         <v>10</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y15">
         <v>9</v>
@@ -1922,13 +1922,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1976,13 +1976,13 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U16">
         <v>10</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W16">
         <v>10</v>
@@ -2153,13 +2153,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2207,13 +2207,13 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U19">
         <v>8</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>6</v>
@@ -2230,19 +2230,19 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -2284,19 +2284,19 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U20">
         <v>10</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W20">
         <v>10</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y20">
         <v>9</v>
@@ -2307,19 +2307,19 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>8</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -2361,19 +2361,19 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U21">
         <v>10</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <v>8</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y21">
         <v>9</v>
@@ -2384,19 +2384,19 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>9</v>
@@ -2438,19 +2438,19 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U22">
         <v>10</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W22">
         <v>10</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y22">
         <v>9</v>
@@ -2538,13 +2538,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -2592,13 +2592,13 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W24">
         <v>9</v>
@@ -2615,7 +2615,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2669,7 +2669,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U25">
         <v>-1</v>
@@ -2846,7 +2846,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -2900,7 +2900,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U28">
         <v>-1</v>
@@ -2923,13 +2923,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2977,13 +2977,13 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U29">
         <v>10</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W29">
         <v>10</v>
@@ -3077,13 +3077,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>9</v>
@@ -3131,13 +3131,13 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U31">
         <v>10</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W31">
         <v>9</v>
@@ -3154,13 +3154,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -3208,13 +3208,13 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U32">
         <v>10</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W32">
         <v>10</v>
@@ -3231,13 +3231,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -3285,13 +3285,13 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U33">
         <v>10</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W33">
         <v>10</v>
@@ -3308,13 +3308,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -3362,13 +3362,13 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U34">
         <v>10</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W34">
         <v>10</v>
@@ -3462,13 +3462,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -3516,13 +3516,13 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <v>6</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W36">
         <v>7</v>
@@ -3539,13 +3539,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>9</v>
@@ -3593,13 +3593,13 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U37">
         <v>10</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W37">
         <v>9</v>
@@ -3616,13 +3616,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -3670,13 +3670,13 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U38">
         <v>-1</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3693,7 +3693,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -3747,7 +3747,7 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U39">
         <v>7</v>
@@ -3847,13 +3847,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>-1</v>
@@ -3901,13 +3901,13 @@
         <v>-1</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U41">
         <v>7</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3984,22 +3984,25 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>9.199999999999999</v>
+      </c>
       <c r="I2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4013,27 +4016,30 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>57.89</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.26</v>
+      </c>
+      <c r="H3">
+        <v>8.4</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -4042,22 +4048,25 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.16</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
       <c r="I4">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4230,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4270,7 +4279,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4350,7 +4359,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4390,7 +4399,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4470,7 +4479,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4510,7 +4519,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4590,7 +4599,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4630,7 +4639,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4710,7 +4719,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4750,7 +4759,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4830,7 +4839,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4870,7 +4879,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4950,7 +4959,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4990,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5070,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5110,7 +5119,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5190,7 +5199,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5230,7 +5239,7 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5310,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5350,7 +5359,7 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5430,7 +5439,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5470,7 +5479,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5550,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5590,7 +5599,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5670,7 +5679,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5710,7 +5719,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5790,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5830,7 +5839,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5910,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5950,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6030,7 +6039,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6070,7 +6079,7 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6150,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6190,7 +6199,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6270,7 +6279,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6310,7 +6319,7 @@
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6390,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6430,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6510,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6550,7 +6559,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6630,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6670,7 +6679,7 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6750,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6790,7 +6799,7 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6870,7 +6879,7 @@
         <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6910,7 +6919,7 @@
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6990,7 +6999,7 @@
         <v>5</v>
       </c>
       <c r="F141" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7030,7 +7039,7 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7110,7 +7119,7 @@
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7150,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7230,7 +7239,7 @@
         <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7270,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7350,7 +7359,7 @@
         <v>5</v>
       </c>
       <c r="F159" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7390,7 +7399,7 @@
         <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7470,7 +7479,7 @@
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7510,7 +7519,7 @@
         <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7590,7 +7599,7 @@
         <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7630,7 +7639,7 @@
         <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7710,7 +7719,7 @@
         <v>5</v>
       </c>
       <c r="F177" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7750,7 +7759,7 @@
         <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7830,7 +7839,7 @@
         <v>5</v>
       </c>
       <c r="F183" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7870,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7950,7 +7959,7 @@
         <v>5</v>
       </c>
       <c r="F189" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7990,7 +7999,7 @@
         <v>9</v>
       </c>
       <c r="F191" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8070,7 +8079,7 @@
         <v>5</v>
       </c>
       <c r="F195" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8110,7 +8119,7 @@
         <v>9</v>
       </c>
       <c r="F197" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8190,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="F201" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8230,7 +8239,7 @@
         <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8310,7 +8319,7 @@
         <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8350,7 +8359,7 @@
         <v>9</v>
       </c>
       <c r="F209" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8430,7 +8439,7 @@
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8470,7 +8479,7 @@
         <v>9</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8550,7 +8559,7 @@
         <v>5</v>
       </c>
       <c r="F219" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8590,7 +8599,7 @@
         <v>9</v>
       </c>
       <c r="F221" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8670,7 +8679,7 @@
         <v>5</v>
       </c>
       <c r="F225" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8710,7 +8719,7 @@
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -9440,7 +9449,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9473,6 +9482,397 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920307</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920312</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920325</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920321</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920344</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920440</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920350</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920351</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5APV - Estadisticos 20211.xlsx
+++ b/grupos/5APV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="164">
   <si>
     <t>Materia</t>
   </si>
@@ -227,45 +227,180 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>XOLIO</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>AULIS</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CARLO HUMBERTO</t>
+  </si>
+  <si>
+    <t>JOSMAR ANTONIO</t>
+  </si>
+  <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
+    <t>CRUZ JESUS</t>
+  </si>
+  <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO</t>
+  </si>
+  <si>
+    <t>ANDREA YAMILET</t>
+  </si>
+  <si>
+    <t>JESUS ARMANDO</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>ADAN</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>HERSON ELIAS</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
     <t>ARRIETA</t>
   </si>
   <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
     <t>CERVANTES</t>
   </si>
   <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>GALVEZ</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>DE JESUS</t>
   </si>
   <si>
@@ -278,75 +413,24 @@
     <t>MANUEL</t>
   </si>
   <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
     <t>MONTIEL</t>
   </si>
   <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
     <t>PATIÑO</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>XOLIO</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>MORENO</t>
-  </si>
-  <si>
     <t>NAVA</t>
   </si>
   <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
-    <t>AULIS</t>
-  </si>
-  <si>
     <t>ALTAMIRANO</t>
   </si>
   <si>
@@ -356,9 +440,6 @@
     <t>GALLARDO</t>
   </si>
   <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
@@ -371,63 +452,24 @@
     <t>ROJAS</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>ISRAEL</t>
   </si>
   <si>
-    <t>CARLO HUMBERTO</t>
-  </si>
-  <si>
     <t>JESUS ALBERTO</t>
   </si>
   <si>
-    <t>JOSMAR ANTONIO</t>
-  </si>
-  <si>
-    <t>KEVIN HONAM</t>
-  </si>
-  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
-    <t>CRUZ JESUS</t>
-  </si>
-  <si>
     <t>SAUL ESTEBAN</t>
   </si>
   <si>
-    <t>ALDO</t>
-  </si>
-  <si>
     <t>ADRIAN</t>
   </si>
   <si>
@@ -437,12 +479,6 @@
     <t>ARELY</t>
   </si>
   <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
     <t>IGNACIO</t>
   </si>
   <si>
@@ -458,36 +494,15 @@
     <t>LUZ ABRIL</t>
   </si>
   <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
     <t>VICTOR YAHIR</t>
   </si>
   <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>JOSHUA</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO</t>
-  </si>
-  <si>
-    <t>ANDREA YAMILET</t>
-  </si>
-  <si>
     <t>CRISTOPHER ENRIQUE</t>
   </si>
   <si>
     <t>CARLOS FERNANDO</t>
   </si>
   <si>
-    <t>JESUS ARMANDO</t>
-  </si>
-  <si>
     <t>CIELO IVETTE</t>
   </si>
   <si>
@@ -495,21 +510,6 @@
   </si>
   <si>
     <t>YOSEF OMAR</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>HERSON ELIAS</t>
-  </si>
-  <si>
-    <t>JOEL</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1141,10 +1141,10 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y7">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -1626,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y12">
         <v>9</v>
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y14">
         <v>7</v>
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1988,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -2219,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y19">
         <v>8</v>
@@ -2550,7 +2550,7 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -2604,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y24">
         <v>9</v>
@@ -2630,7 +2630,7 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2684,7 +2684,7 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2935,7 +2935,7 @@
         <v>10</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -2989,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y29">
         <v>9</v>
@@ -3089,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -3143,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -3166,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>9</v>
@@ -3220,7 +3220,7 @@
         <v>10</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y32">
         <v>9</v>
@@ -3243,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -3297,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y33">
         <v>9</v>
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -3374,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y34">
         <v>10</v>
@@ -3551,7 +3551,7 @@
         <v>9</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G37">
         <v>9</v>
@@ -3605,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y37">
         <v>9</v>
@@ -3984,25 +3984,25 @@
         <v>38</v>
       </c>
       <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>42.11</v>
+      </c>
+      <c r="G2">
         <v>15.79</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>84.20999999999999</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4144,25 +4144,25 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
     </row>
   </sheetData>
@@ -4172,7 +4172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4204,56 +4204,56 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920307</v>
+        <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920307</v>
+        <v>19330051920311</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920307</v>
+        <v>19330051920312</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4284,676 +4284,676 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920307</v>
+        <v>19330051920450</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920307</v>
+        <v>19330051920450</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920308</v>
+        <v>19330051920450</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920308</v>
+        <v>19330051920450</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920308</v>
+        <v>19330051920450</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920308</v>
+        <v>19330051920319</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920308</v>
+        <v>19330051920327</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920308</v>
+        <v>19330051920327</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920309</v>
+        <v>19330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920309</v>
+        <v>19330051920327</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920309</v>
+        <v>19330051920327</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920309</v>
+        <v>19330051920327</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920309</v>
+        <v>19330051920453</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920309</v>
+        <v>19330051920453</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920311</v>
+        <v>19330051920453</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920311</v>
+        <v>19330051920453</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920311</v>
+        <v>19330051920453</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920311</v>
+        <v>19330051920453</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920311</v>
+        <v>19330051920334</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920311</v>
+        <v>19330051920334</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920312</v>
+        <v>19330051920334</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920312</v>
+        <v>19330051920334</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920312</v>
+        <v>19330051920334</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920312</v>
+        <v>19330051920338</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920312</v>
+        <v>19330051920338</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920312</v>
+        <v>19330051920338</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920316</v>
+        <v>19330051920338</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920316</v>
+        <v>19330051920339</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920316</v>
+        <v>19330051920339</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920316</v>
+        <v>19330051920339</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920316</v>
+        <v>19330051920339</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920316</v>
+        <v>19330051920339</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920450</v>
+        <v>19330051920339</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920450</v>
+        <v>19330051920340</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -4964,16 +4964,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920450</v>
+        <v>19330051920340</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920450</v>
+        <v>19330051920340</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -5004,176 +5004,176 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920450</v>
+        <v>19330051920340</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920450</v>
+        <v>19330051920445</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920318</v>
+        <v>19330051920445</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920318</v>
+        <v>19330051920445</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920318</v>
+        <v>19330051920445</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920318</v>
+        <v>19330051920342</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920318</v>
+        <v>19330051920342</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920318</v>
+        <v>19330051920342</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920319</v>
+        <v>19330051920347</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -5184,16 +5184,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920319</v>
+        <v>19330051920347</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -5204,16 +5204,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920319</v>
+        <v>19330051920347</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -5224,16 +5224,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920319</v>
+        <v>19330051920347</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -5244,16 +5244,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920319</v>
+        <v>19330051920347</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -5264,16 +5264,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920319</v>
+        <v>19330051920347</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -5284,3481 +5284,281 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920323</v>
+        <v>19330051920350</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920323</v>
+        <v>19330051920352</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920323</v>
+        <v>19330051920352</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920323</v>
+        <v>19330051920352</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920323</v>
+        <v>19330051920354</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920323</v>
+        <v>19330051920354</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920441</v>
+        <v>19330051920354</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920441</v>
+        <v>19330051920354</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920441</v>
+        <v>19330051920354</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920441</v>
+        <v>19330051920354</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920441</v>
+        <v>19330051920353</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920441</v>
+        <v>19330051920353</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920325</v>
+        <v>19330051920355</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920325</v>
+        <v>19330051920355</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920325</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920325</v>
-      </c>
-      <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920325</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920325</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920327</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920327</v>
-      </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" t="s">
-        <v>139</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920327</v>
-      </c>
-      <c r="B76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920327</v>
-      </c>
-      <c r="B77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920327</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920327</v>
-      </c>
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920453</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920453</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920453</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920453</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920453</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920453</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920321</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" t="s">
-        <v>141</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920321</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920321</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" t="s">
-        <v>141</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920321</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920321</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" t="s">
-        <v>141</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920321</v>
-      </c>
-      <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" t="s">
-        <v>141</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920330</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920330</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920330</v>
-      </c>
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" t="s">
-        <v>142</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920330</v>
-      </c>
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" t="s">
-        <v>142</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920330</v>
-      </c>
-      <c r="B96" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" t="s">
-        <v>114</v>
-      </c>
-      <c r="D96" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920330</v>
-      </c>
-      <c r="B97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" t="s">
-        <v>114</v>
-      </c>
-      <c r="D97" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920332</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>80</v>
-      </c>
-      <c r="D98" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920332</v>
-      </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920332</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>80</v>
-      </c>
-      <c r="D100" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920332</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920332</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920332</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>80</v>
-      </c>
-      <c r="D103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920331</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920331</v>
-      </c>
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920331</v>
-      </c>
-      <c r="B106" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" t="s">
-        <v>115</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920331</v>
-      </c>
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" t="s">
-        <v>144</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920331</v>
-      </c>
-      <c r="B108" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" t="s">
-        <v>144</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920331</v>
-      </c>
-      <c r="B109" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" t="s">
-        <v>115</v>
-      </c>
-      <c r="D109" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920333</v>
-      </c>
-      <c r="B110" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" t="s">
-        <v>94</v>
-      </c>
-      <c r="D110" t="s">
-        <v>145</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920333</v>
-      </c>
-      <c r="B111" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" t="s">
-        <v>145</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920333</v>
-      </c>
-      <c r="B112" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" t="s">
-        <v>94</v>
-      </c>
-      <c r="D112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920333</v>
-      </c>
-      <c r="B113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" t="s">
-        <v>145</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920333</v>
-      </c>
-      <c r="B114" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" t="s">
-        <v>145</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920333</v>
-      </c>
-      <c r="B115" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" t="s">
-        <v>145</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920334</v>
-      </c>
-      <c r="B116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C116" t="s">
-        <v>80</v>
-      </c>
-      <c r="D116" t="s">
-        <v>146</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920334</v>
-      </c>
-      <c r="B117" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" t="s">
-        <v>146</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920334</v>
-      </c>
-      <c r="B118" t="s">
-        <v>86</v>
-      </c>
-      <c r="C118" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" t="s">
-        <v>146</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920334</v>
-      </c>
-      <c r="B119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920334</v>
-      </c>
-      <c r="B120" t="s">
-        <v>86</v>
-      </c>
-      <c r="C120" t="s">
-        <v>80</v>
-      </c>
-      <c r="D120" t="s">
-        <v>146</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920334</v>
-      </c>
-      <c r="B121" t="s">
-        <v>86</v>
-      </c>
-      <c r="C121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D121" t="s">
-        <v>146</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920337</v>
-      </c>
-      <c r="B122" t="s">
-        <v>87</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920337</v>
-      </c>
-      <c r="B123" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D123" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920337</v>
-      </c>
-      <c r="B124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" t="s">
-        <v>116</v>
-      </c>
-      <c r="D124" t="s">
-        <v>147</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920337</v>
-      </c>
-      <c r="B125" t="s">
-        <v>87</v>
-      </c>
-      <c r="C125" t="s">
-        <v>116</v>
-      </c>
-      <c r="D125" t="s">
-        <v>147</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920337</v>
-      </c>
-      <c r="B126" t="s">
-        <v>87</v>
-      </c>
-      <c r="C126" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" t="s">
-        <v>147</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920337</v>
-      </c>
-      <c r="B127" t="s">
-        <v>87</v>
-      </c>
-      <c r="C127" t="s">
-        <v>116</v>
-      </c>
-      <c r="D127" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920338</v>
-      </c>
-      <c r="B128" t="s">
-        <v>88</v>
-      </c>
-      <c r="C128" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" t="s">
-        <v>148</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920338</v>
-      </c>
-      <c r="B129" t="s">
-        <v>88</v>
-      </c>
-      <c r="C129" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" t="s">
-        <v>148</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920338</v>
-      </c>
-      <c r="B130" t="s">
-        <v>88</v>
-      </c>
-      <c r="C130" t="s">
-        <v>117</v>
-      </c>
-      <c r="D130" t="s">
-        <v>148</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920338</v>
-      </c>
-      <c r="B131" t="s">
-        <v>88</v>
-      </c>
-      <c r="C131" t="s">
-        <v>117</v>
-      </c>
-      <c r="D131" t="s">
-        <v>148</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920338</v>
-      </c>
-      <c r="B132" t="s">
-        <v>88</v>
-      </c>
-      <c r="C132" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" t="s">
-        <v>148</v>
-      </c>
-      <c r="E132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920338</v>
-      </c>
-      <c r="B133" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" t="s">
-        <v>148</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920339</v>
-      </c>
-      <c r="B134" t="s">
-        <v>89</v>
-      </c>
-      <c r="C134" t="s">
-        <v>118</v>
-      </c>
-      <c r="D134" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920339</v>
-      </c>
-      <c r="B135" t="s">
-        <v>89</v>
-      </c>
-      <c r="C135" t="s">
-        <v>118</v>
-      </c>
-      <c r="D135" t="s">
-        <v>149</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920339</v>
-      </c>
-      <c r="B136" t="s">
-        <v>89</v>
-      </c>
-      <c r="C136" t="s">
-        <v>118</v>
-      </c>
-      <c r="D136" t="s">
-        <v>149</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920339</v>
-      </c>
-      <c r="B137" t="s">
-        <v>89</v>
-      </c>
-      <c r="C137" t="s">
-        <v>118</v>
-      </c>
-      <c r="D137" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920339</v>
-      </c>
-      <c r="B138" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" t="s">
-        <v>118</v>
-      </c>
-      <c r="D138" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920339</v>
-      </c>
-      <c r="B139" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" t="s">
-        <v>118</v>
-      </c>
-      <c r="D139" t="s">
-        <v>149</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920340</v>
-      </c>
-      <c r="B140" t="s">
-        <v>90</v>
-      </c>
-      <c r="C140" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" t="s">
-        <v>150</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920340</v>
-      </c>
-      <c r="B141" t="s">
-        <v>90</v>
-      </c>
-      <c r="C141" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" t="s">
-        <v>150</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920340</v>
-      </c>
-      <c r="B142" t="s">
-        <v>90</v>
-      </c>
-      <c r="C142" t="s">
-        <v>94</v>
-      </c>
-      <c r="D142" t="s">
-        <v>150</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920340</v>
-      </c>
-      <c r="B143" t="s">
-        <v>90</v>
-      </c>
-      <c r="C143" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" t="s">
-        <v>150</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920340</v>
-      </c>
-      <c r="B144" t="s">
-        <v>90</v>
-      </c>
-      <c r="C144" t="s">
-        <v>94</v>
-      </c>
-      <c r="D144" t="s">
-        <v>150</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920340</v>
-      </c>
-      <c r="B145" t="s">
-        <v>90</v>
-      </c>
-      <c r="C145" t="s">
-        <v>94</v>
-      </c>
-      <c r="D145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920445</v>
-      </c>
-      <c r="B146" t="s">
-        <v>91</v>
-      </c>
-      <c r="C146" t="s">
-        <v>81</v>
-      </c>
-      <c r="D146" t="s">
-        <v>151</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920445</v>
-      </c>
-      <c r="B147" t="s">
-        <v>91</v>
-      </c>
-      <c r="C147" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" t="s">
-        <v>151</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920445</v>
-      </c>
-      <c r="B148" t="s">
-        <v>91</v>
-      </c>
-      <c r="C148" t="s">
-        <v>81</v>
-      </c>
-      <c r="D148" t="s">
-        <v>151</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920445</v>
-      </c>
-      <c r="B149" t="s">
-        <v>91</v>
-      </c>
-      <c r="C149" t="s">
-        <v>81</v>
-      </c>
-      <c r="D149" t="s">
-        <v>151</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920445</v>
-      </c>
-      <c r="B150" t="s">
-        <v>91</v>
-      </c>
-      <c r="C150" t="s">
-        <v>81</v>
-      </c>
-      <c r="D150" t="s">
-        <v>151</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920445</v>
-      </c>
-      <c r="B151" t="s">
-        <v>91</v>
-      </c>
-      <c r="C151" t="s">
-        <v>81</v>
-      </c>
-      <c r="D151" t="s">
-        <v>151</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920342</v>
-      </c>
-      <c r="B152" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" t="s">
-        <v>119</v>
-      </c>
-      <c r="D152" t="s">
-        <v>152</v>
-      </c>
-      <c r="E152" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920342</v>
-      </c>
-      <c r="B153" t="s">
-        <v>92</v>
-      </c>
-      <c r="C153" t="s">
-        <v>119</v>
-      </c>
-      <c r="D153" t="s">
-        <v>152</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920342</v>
-      </c>
-      <c r="B154" t="s">
-        <v>92</v>
-      </c>
-      <c r="C154" t="s">
-        <v>119</v>
-      </c>
-      <c r="D154" t="s">
-        <v>152</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920342</v>
-      </c>
-      <c r="B155" t="s">
-        <v>92</v>
-      </c>
-      <c r="C155" t="s">
-        <v>119</v>
-      </c>
-      <c r="D155" t="s">
-        <v>152</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920342</v>
-      </c>
-      <c r="B156" t="s">
-        <v>92</v>
-      </c>
-      <c r="C156" t="s">
-        <v>119</v>
-      </c>
-      <c r="D156" t="s">
-        <v>152</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920342</v>
-      </c>
-      <c r="B157" t="s">
-        <v>92</v>
-      </c>
-      <c r="C157" t="s">
-        <v>119</v>
-      </c>
-      <c r="D157" t="s">
-        <v>152</v>
-      </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920341</v>
-      </c>
-      <c r="B158" t="s">
-        <v>93</v>
-      </c>
-      <c r="C158" t="s">
-        <v>98</v>
-      </c>
-      <c r="D158" t="s">
-        <v>153</v>
-      </c>
-      <c r="E158" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920341</v>
-      </c>
-      <c r="B159" t="s">
-        <v>93</v>
-      </c>
-      <c r="C159" t="s">
-        <v>98</v>
-      </c>
-      <c r="D159" t="s">
-        <v>153</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920341</v>
-      </c>
-      <c r="B160" t="s">
-        <v>93</v>
-      </c>
-      <c r="C160" t="s">
-        <v>98</v>
-      </c>
-      <c r="D160" t="s">
-        <v>153</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920341</v>
-      </c>
-      <c r="B161" t="s">
-        <v>93</v>
-      </c>
-      <c r="C161" t="s">
-        <v>98</v>
-      </c>
-      <c r="D161" t="s">
-        <v>153</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920341</v>
-      </c>
-      <c r="B162" t="s">
-        <v>93</v>
-      </c>
-      <c r="C162" t="s">
-        <v>98</v>
-      </c>
-      <c r="D162" t="s">
-        <v>153</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920341</v>
-      </c>
-      <c r="B163" t="s">
-        <v>93</v>
-      </c>
-      <c r="C163" t="s">
-        <v>98</v>
-      </c>
-      <c r="D163" t="s">
-        <v>153</v>
-      </c>
-      <c r="E163" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920344</v>
-      </c>
-      <c r="B164" t="s">
-        <v>94</v>
-      </c>
-      <c r="C164" t="s">
-        <v>69</v>
-      </c>
-      <c r="D164" t="s">
-        <v>154</v>
-      </c>
-      <c r="E164" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920344</v>
-      </c>
-      <c r="B165" t="s">
-        <v>94</v>
-      </c>
-      <c r="C165" t="s">
-        <v>69</v>
-      </c>
-      <c r="D165" t="s">
-        <v>154</v>
-      </c>
-      <c r="E165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F165" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920344</v>
-      </c>
-      <c r="B166" t="s">
-        <v>94</v>
-      </c>
-      <c r="C166" t="s">
-        <v>69</v>
-      </c>
-      <c r="D166" t="s">
-        <v>154</v>
-      </c>
-      <c r="E166" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920344</v>
-      </c>
-      <c r="B167" t="s">
-        <v>94</v>
-      </c>
-      <c r="C167" t="s">
-        <v>69</v>
-      </c>
-      <c r="D167" t="s">
-        <v>154</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920344</v>
-      </c>
-      <c r="B168" t="s">
-        <v>94</v>
-      </c>
-      <c r="C168" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" t="s">
-        <v>154</v>
-      </c>
-      <c r="E168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920344</v>
-      </c>
-      <c r="B169" t="s">
-        <v>94</v>
-      </c>
-      <c r="C169" t="s">
-        <v>69</v>
-      </c>
-      <c r="D169" t="s">
-        <v>154</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920347</v>
-      </c>
-      <c r="B170" t="s">
-        <v>95</v>
-      </c>
-      <c r="C170" t="s">
-        <v>120</v>
-      </c>
-      <c r="D170" t="s">
-        <v>155</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920347</v>
-      </c>
-      <c r="B171" t="s">
-        <v>95</v>
-      </c>
-      <c r="C171" t="s">
-        <v>120</v>
-      </c>
-      <c r="D171" t="s">
-        <v>155</v>
-      </c>
-      <c r="E171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920347</v>
-      </c>
-      <c r="B172" t="s">
-        <v>95</v>
-      </c>
-      <c r="C172" t="s">
-        <v>120</v>
-      </c>
-      <c r="D172" t="s">
-        <v>155</v>
-      </c>
-      <c r="E172" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920347</v>
-      </c>
-      <c r="B173" t="s">
-        <v>95</v>
-      </c>
-      <c r="C173" t="s">
-        <v>120</v>
-      </c>
-      <c r="D173" t="s">
-        <v>155</v>
-      </c>
-      <c r="E173" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920347</v>
-      </c>
-      <c r="B174" t="s">
-        <v>95</v>
-      </c>
-      <c r="C174" t="s">
-        <v>120</v>
-      </c>
-      <c r="D174" t="s">
-        <v>155</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920347</v>
-      </c>
-      <c r="B175" t="s">
-        <v>95</v>
-      </c>
-      <c r="C175" t="s">
-        <v>120</v>
-      </c>
-      <c r="D175" t="s">
-        <v>155</v>
-      </c>
-      <c r="E175" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920440</v>
-      </c>
-      <c r="B176" t="s">
-        <v>96</v>
-      </c>
-      <c r="C176" t="s">
-        <v>81</v>
-      </c>
-      <c r="D176" t="s">
-        <v>156</v>
-      </c>
-      <c r="E176" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920440</v>
-      </c>
-      <c r="B177" t="s">
-        <v>96</v>
-      </c>
-      <c r="C177" t="s">
-        <v>81</v>
-      </c>
-      <c r="D177" t="s">
-        <v>156</v>
-      </c>
-      <c r="E177" t="s">
-        <v>5</v>
-      </c>
-      <c r="F177" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920440</v>
-      </c>
-      <c r="B178" t="s">
-        <v>96</v>
-      </c>
-      <c r="C178" t="s">
-        <v>81</v>
-      </c>
-      <c r="D178" t="s">
-        <v>156</v>
-      </c>
-      <c r="E178" t="s">
-        <v>7</v>
-      </c>
-      <c r="F178" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920440</v>
-      </c>
-      <c r="B179" t="s">
-        <v>96</v>
-      </c>
-      <c r="C179" t="s">
-        <v>81</v>
-      </c>
-      <c r="D179" t="s">
-        <v>156</v>
-      </c>
-      <c r="E179" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920440</v>
-      </c>
-      <c r="B180" t="s">
-        <v>96</v>
-      </c>
-      <c r="C180" t="s">
-        <v>81</v>
-      </c>
-      <c r="D180" t="s">
-        <v>156</v>
-      </c>
-      <c r="E180" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920440</v>
-      </c>
-      <c r="B181" t="s">
-        <v>96</v>
-      </c>
-      <c r="C181" t="s">
-        <v>81</v>
-      </c>
-      <c r="D181" t="s">
-        <v>156</v>
-      </c>
-      <c r="E181" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920345</v>
-      </c>
-      <c r="B182" t="s">
-        <v>96</v>
-      </c>
-      <c r="C182" t="s">
-        <v>84</v>
-      </c>
-      <c r="D182" t="s">
-        <v>157</v>
-      </c>
-      <c r="E182" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920345</v>
-      </c>
-      <c r="B183" t="s">
-        <v>96</v>
-      </c>
-      <c r="C183" t="s">
-        <v>84</v>
-      </c>
-      <c r="D183" t="s">
-        <v>157</v>
-      </c>
-      <c r="E183" t="s">
-        <v>5</v>
-      </c>
-      <c r="F183" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920345</v>
-      </c>
-      <c r="B184" t="s">
-        <v>96</v>
-      </c>
-      <c r="C184" t="s">
-        <v>84</v>
-      </c>
-      <c r="D184" t="s">
-        <v>157</v>
-      </c>
-      <c r="E184" t="s">
-        <v>7</v>
-      </c>
-      <c r="F184" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920345</v>
-      </c>
-      <c r="B185" t="s">
-        <v>96</v>
-      </c>
-      <c r="C185" t="s">
-        <v>84</v>
-      </c>
-      <c r="D185" t="s">
-        <v>157</v>
-      </c>
-      <c r="E185" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920345</v>
-      </c>
-      <c r="B186" t="s">
-        <v>96</v>
-      </c>
-      <c r="C186" t="s">
-        <v>84</v>
-      </c>
-      <c r="D186" t="s">
-        <v>157</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920345</v>
-      </c>
-      <c r="B187" t="s">
-        <v>96</v>
-      </c>
-      <c r="C187" t="s">
-        <v>84</v>
-      </c>
-      <c r="D187" t="s">
-        <v>157</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920346</v>
-      </c>
-      <c r="B188" t="s">
-        <v>96</v>
-      </c>
-      <c r="C188" t="s">
-        <v>121</v>
-      </c>
-      <c r="D188" t="s">
-        <v>158</v>
-      </c>
-      <c r="E188" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920346</v>
-      </c>
-      <c r="B189" t="s">
-        <v>96</v>
-      </c>
-      <c r="C189" t="s">
-        <v>121</v>
-      </c>
-      <c r="D189" t="s">
-        <v>158</v>
-      </c>
-      <c r="E189" t="s">
-        <v>5</v>
-      </c>
-      <c r="F189" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920346</v>
-      </c>
-      <c r="B190" t="s">
-        <v>96</v>
-      </c>
-      <c r="C190" t="s">
-        <v>121</v>
-      </c>
-      <c r="D190" t="s">
-        <v>158</v>
-      </c>
-      <c r="E190" t="s">
-        <v>7</v>
-      </c>
-      <c r="F190" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920346</v>
-      </c>
-      <c r="B191" t="s">
-        <v>96</v>
-      </c>
-      <c r="C191" t="s">
-        <v>121</v>
-      </c>
-      <c r="D191" t="s">
-        <v>158</v>
-      </c>
-      <c r="E191" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920346</v>
-      </c>
-      <c r="B192" t="s">
-        <v>96</v>
-      </c>
-      <c r="C192" t="s">
-        <v>121</v>
-      </c>
-      <c r="D192" t="s">
-        <v>158</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920346</v>
-      </c>
-      <c r="B193" t="s">
-        <v>96</v>
-      </c>
-      <c r="C193" t="s">
-        <v>121</v>
-      </c>
-      <c r="D193" t="s">
-        <v>158</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920350</v>
-      </c>
-      <c r="B194" t="s">
-        <v>97</v>
-      </c>
-      <c r="C194" t="s">
-        <v>122</v>
-      </c>
-      <c r="D194" t="s">
-        <v>159</v>
-      </c>
-      <c r="E194" t="s">
-        <v>10</v>
-      </c>
-      <c r="F194" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920350</v>
-      </c>
-      <c r="B195" t="s">
-        <v>97</v>
-      </c>
-      <c r="C195" t="s">
-        <v>122</v>
-      </c>
-      <c r="D195" t="s">
-        <v>159</v>
-      </c>
-      <c r="E195" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920350</v>
-      </c>
-      <c r="B196" t="s">
-        <v>97</v>
-      </c>
-      <c r="C196" t="s">
-        <v>122</v>
-      </c>
-      <c r="D196" t="s">
-        <v>159</v>
-      </c>
-      <c r="E196" t="s">
-        <v>7</v>
-      </c>
-      <c r="F196" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920350</v>
-      </c>
-      <c r="B197" t="s">
-        <v>97</v>
-      </c>
-      <c r="C197" t="s">
-        <v>122</v>
-      </c>
-      <c r="D197" t="s">
-        <v>159</v>
-      </c>
-      <c r="E197" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920350</v>
-      </c>
-      <c r="B198" t="s">
-        <v>97</v>
-      </c>
-      <c r="C198" t="s">
-        <v>122</v>
-      </c>
-      <c r="D198" t="s">
-        <v>159</v>
-      </c>
-      <c r="E198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920350</v>
-      </c>
-      <c r="B199" t="s">
-        <v>97</v>
-      </c>
-      <c r="C199" t="s">
-        <v>122</v>
-      </c>
-      <c r="D199" t="s">
-        <v>159</v>
-      </c>
-      <c r="E199" t="s">
-        <v>8</v>
-      </c>
-      <c r="F199" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>19330051920351</v>
-      </c>
-      <c r="B200" t="s">
-        <v>98</v>
-      </c>
-      <c r="C200" t="s">
-        <v>123</v>
-      </c>
-      <c r="D200" t="s">
-        <v>139</v>
-      </c>
-      <c r="E200" t="s">
-        <v>10</v>
-      </c>
-      <c r="F200" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>19330051920351</v>
-      </c>
-      <c r="B201" t="s">
-        <v>98</v>
-      </c>
-      <c r="C201" t="s">
-        <v>123</v>
-      </c>
-      <c r="D201" t="s">
-        <v>139</v>
-      </c>
-      <c r="E201" t="s">
-        <v>5</v>
-      </c>
-      <c r="F201" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>19330051920351</v>
-      </c>
-      <c r="B202" t="s">
-        <v>98</v>
-      </c>
-      <c r="C202" t="s">
-        <v>123</v>
-      </c>
-      <c r="D202" t="s">
-        <v>139</v>
-      </c>
-      <c r="E202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>19330051920351</v>
-      </c>
-      <c r="B203" t="s">
-        <v>98</v>
-      </c>
-      <c r="C203" t="s">
-        <v>123</v>
-      </c>
-      <c r="D203" t="s">
-        <v>139</v>
-      </c>
-      <c r="E203" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>19330051920351</v>
-      </c>
-      <c r="B204" t="s">
-        <v>98</v>
-      </c>
-      <c r="C204" t="s">
-        <v>123</v>
-      </c>
-      <c r="D204" t="s">
-        <v>139</v>
-      </c>
-      <c r="E204" t="s">
-        <v>6</v>
-      </c>
-      <c r="F204" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>19330051920351</v>
-      </c>
-      <c r="B205" t="s">
-        <v>98</v>
-      </c>
-      <c r="C205" t="s">
-        <v>123</v>
-      </c>
-      <c r="D205" t="s">
-        <v>139</v>
-      </c>
-      <c r="E205" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>19330051920352</v>
-      </c>
-      <c r="B206" t="s">
-        <v>99</v>
-      </c>
-      <c r="C206" t="s">
-        <v>124</v>
-      </c>
-      <c r="D206" t="s">
-        <v>160</v>
-      </c>
-      <c r="E206" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>19330051920352</v>
-      </c>
-      <c r="B207" t="s">
-        <v>99</v>
-      </c>
-      <c r="C207" t="s">
-        <v>124</v>
-      </c>
-      <c r="D207" t="s">
-        <v>160</v>
-      </c>
-      <c r="E207" t="s">
-        <v>5</v>
-      </c>
-      <c r="F207" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>19330051920352</v>
-      </c>
-      <c r="B208" t="s">
-        <v>99</v>
-      </c>
-      <c r="C208" t="s">
-        <v>124</v>
-      </c>
-      <c r="D208" t="s">
-        <v>160</v>
-      </c>
-      <c r="E208" t="s">
-        <v>7</v>
-      </c>
-      <c r="F208" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>19330051920352</v>
-      </c>
-      <c r="B209" t="s">
-        <v>99</v>
-      </c>
-      <c r="C209" t="s">
-        <v>124</v>
-      </c>
-      <c r="D209" t="s">
-        <v>160</v>
-      </c>
-      <c r="E209" t="s">
-        <v>9</v>
-      </c>
-      <c r="F209" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>19330051920352</v>
-      </c>
-      <c r="B210" t="s">
-        <v>99</v>
-      </c>
-      <c r="C210" t="s">
-        <v>124</v>
-      </c>
-      <c r="D210" t="s">
-        <v>160</v>
-      </c>
-      <c r="E210" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>19330051920352</v>
-      </c>
-      <c r="B211" t="s">
-        <v>99</v>
-      </c>
-      <c r="C211" t="s">
-        <v>124</v>
-      </c>
-      <c r="D211" t="s">
-        <v>160</v>
-      </c>
-      <c r="E211" t="s">
-        <v>8</v>
-      </c>
-      <c r="F211" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>19330051920354</v>
-      </c>
-      <c r="B212" t="s">
-        <v>100</v>
-      </c>
-      <c r="C212" t="s">
-        <v>125</v>
-      </c>
-      <c r="D212" t="s">
-        <v>161</v>
-      </c>
-      <c r="E212" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>19330051920354</v>
-      </c>
-      <c r="B213" t="s">
-        <v>100</v>
-      </c>
-      <c r="C213" t="s">
-        <v>125</v>
-      </c>
-      <c r="D213" t="s">
-        <v>161</v>
-      </c>
-      <c r="E213" t="s">
-        <v>5</v>
-      </c>
-      <c r="F213" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>19330051920354</v>
-      </c>
-      <c r="B214" t="s">
-        <v>100</v>
-      </c>
-      <c r="C214" t="s">
-        <v>125</v>
-      </c>
-      <c r="D214" t="s">
-        <v>161</v>
-      </c>
-      <c r="E214" t="s">
-        <v>7</v>
-      </c>
-      <c r="F214" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>19330051920354</v>
-      </c>
-      <c r="B215" t="s">
-        <v>100</v>
-      </c>
-      <c r="C215" t="s">
-        <v>125</v>
-      </c>
-      <c r="D215" t="s">
-        <v>161</v>
-      </c>
-      <c r="E215" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>19330051920354</v>
-      </c>
-      <c r="B216" t="s">
-        <v>100</v>
-      </c>
-      <c r="C216" t="s">
-        <v>125</v>
-      </c>
-      <c r="D216" t="s">
-        <v>161</v>
-      </c>
-      <c r="E216" t="s">
-        <v>6</v>
-      </c>
-      <c r="F216" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>19330051920354</v>
-      </c>
-      <c r="B217" t="s">
-        <v>100</v>
-      </c>
-      <c r="C217" t="s">
-        <v>125</v>
-      </c>
-      <c r="D217" t="s">
-        <v>161</v>
-      </c>
-      <c r="E217" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>19330051920353</v>
-      </c>
-      <c r="B218" t="s">
-        <v>101</v>
-      </c>
-      <c r="C218" t="s">
-        <v>126</v>
-      </c>
-      <c r="D218" t="s">
-        <v>162</v>
-      </c>
-      <c r="E218" t="s">
-        <v>10</v>
-      </c>
-      <c r="F218" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>19330051920353</v>
-      </c>
-      <c r="B219" t="s">
-        <v>101</v>
-      </c>
-      <c r="C219" t="s">
-        <v>126</v>
-      </c>
-      <c r="D219" t="s">
-        <v>162</v>
-      </c>
-      <c r="E219" t="s">
-        <v>5</v>
-      </c>
-      <c r="F219" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>19330051920353</v>
-      </c>
-      <c r="B220" t="s">
-        <v>101</v>
-      </c>
-      <c r="C220" t="s">
-        <v>126</v>
-      </c>
-      <c r="D220" t="s">
-        <v>162</v>
-      </c>
-      <c r="E220" t="s">
-        <v>7</v>
-      </c>
-      <c r="F220" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>19330051920353</v>
-      </c>
-      <c r="B221" t="s">
-        <v>101</v>
-      </c>
-      <c r="C221" t="s">
-        <v>126</v>
-      </c>
-      <c r="D221" t="s">
-        <v>162</v>
-      </c>
-      <c r="E221" t="s">
-        <v>9</v>
-      </c>
-      <c r="F221" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>19330051920353</v>
-      </c>
-      <c r="B222" t="s">
-        <v>101</v>
-      </c>
-      <c r="C222" t="s">
-        <v>126</v>
-      </c>
-      <c r="D222" t="s">
-        <v>162</v>
-      </c>
-      <c r="E222" t="s">
-        <v>6</v>
-      </c>
-      <c r="F222" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>19330051920353</v>
-      </c>
-      <c r="B223" t="s">
-        <v>101</v>
-      </c>
-      <c r="C223" t="s">
-        <v>126</v>
-      </c>
-      <c r="D223" t="s">
-        <v>162</v>
-      </c>
-      <c r="E223" t="s">
-        <v>8</v>
-      </c>
-      <c r="F223" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>19330051920355</v>
-      </c>
-      <c r="B224" t="s">
-        <v>100</v>
-      </c>
-      <c r="C224" t="s">
-        <v>100</v>
-      </c>
-      <c r="D224" t="s">
-        <v>163</v>
-      </c>
-      <c r="E224" t="s">
-        <v>10</v>
-      </c>
-      <c r="F224" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>19330051920355</v>
-      </c>
-      <c r="B225" t="s">
-        <v>100</v>
-      </c>
-      <c r="C225" t="s">
-        <v>100</v>
-      </c>
-      <c r="D225" t="s">
-        <v>163</v>
-      </c>
-      <c r="E225" t="s">
-        <v>5</v>
-      </c>
-      <c r="F225" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>19330051920355</v>
-      </c>
-      <c r="B226" t="s">
-        <v>100</v>
-      </c>
-      <c r="C226" t="s">
-        <v>100</v>
-      </c>
-      <c r="D226" t="s">
-        <v>163</v>
-      </c>
-      <c r="E226" t="s">
-        <v>7</v>
-      </c>
-      <c r="F226" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>19330051920355</v>
-      </c>
-      <c r="B227" t="s">
-        <v>100</v>
-      </c>
-      <c r="C227" t="s">
-        <v>100</v>
-      </c>
-      <c r="D227" t="s">
-        <v>163</v>
-      </c>
-      <c r="E227" t="s">
-        <v>9</v>
-      </c>
-      <c r="F227" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>19330051920355</v>
-      </c>
-      <c r="B228" t="s">
-        <v>100</v>
-      </c>
-      <c r="C228" t="s">
-        <v>100</v>
-      </c>
-      <c r="D228" t="s">
-        <v>163</v>
-      </c>
-      <c r="E228" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>19330051920355</v>
-      </c>
-      <c r="B229" t="s">
-        <v>100</v>
-      </c>
-      <c r="C229" t="s">
-        <v>100</v>
-      </c>
-      <c r="D229" t="s">
-        <v>163</v>
-      </c>
-      <c r="E229" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8798,16 +5598,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920307</v>
+        <v>19330051920327</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -8815,16 +5615,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920308</v>
+        <v>19330051920453</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -8832,16 +5632,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920309</v>
+        <v>19330051920339</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -8849,16 +5649,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920311</v>
+        <v>19330051920347</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -8866,16 +5666,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920312</v>
+        <v>19330051920354</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -8883,563 +5683,563 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920316</v>
+        <v>19330051920450</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920450</v>
+        <v>19330051920334</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920318</v>
+        <v>19330051920338</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920319</v>
+        <v>19330051920340</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920323</v>
+        <v>19330051920445</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920441</v>
+        <v>19330051920342</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920325</v>
+        <v>19330051920352</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920327</v>
+        <v>19330051920308</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920453</v>
+        <v>19330051920353</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920321</v>
+        <v>19330051920355</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920330</v>
+        <v>19330051920311</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920332</v>
+        <v>19330051920312</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920331</v>
+        <v>19330051920319</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920333</v>
+        <v>19330051920350</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920334</v>
+        <v>19330051920307</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
         <v>146</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920337</v>
+        <v>19330051920309</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
         <v>147</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920338</v>
+        <v>19330051920316</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>148</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920339</v>
+        <v>19330051920318</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
         <v>149</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920340</v>
+        <v>19330051920323</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
         <v>150</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920445</v>
+        <v>19330051920441</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
         <v>151</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920342</v>
+        <v>19330051920325</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
         <v>152</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920341</v>
+        <v>19330051920321</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
         <v>153</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920344</v>
+        <v>19330051920330</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>154</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920347</v>
+        <v>19330051920332</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>155</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920440</v>
+        <v>19330051920331</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
         <v>156</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920345</v>
+        <v>19330051920333</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
         <v>157</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920346</v>
+        <v>19330051920337</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>158</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920350</v>
+        <v>19330051920341</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
         <v>159</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920351</v>
+        <v>19330051920344</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920352</v>
+        <v>19330051920440</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920354</v>
+        <v>19330051920345</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920353</v>
+        <v>19330051920346</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920355</v>
+        <v>19330051920351</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9449,7 +6249,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9484,39 +6284,39 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920319</v>
+        <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920319</v>
+        <v>19330051920312</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -9530,22 +6330,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920307</v>
+        <v>19330051920319</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9553,16 +6353,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920312</v>
+        <v>19330051920323</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -9571,21 +6371,21 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920316</v>
+        <v>19330051920321</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -9594,21 +6394,21 @@
         <v>59</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920323</v>
+        <v>19330051920345</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -9617,21 +6417,21 @@
         <v>59</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920325</v>
+        <v>19330051920350</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -9640,236 +6440,6 @@
         <v>59</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920321</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920330</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920341</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920344</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920440</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920345</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920346</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920350</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920351</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18">
         <v>-1</v>
       </c>
     </row>
